--- a/input/data/gold-standard-corpus.xlsx
+++ b/input/data/gold-standard-corpus.xlsx
@@ -5167,13 +5167,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="9.43"/>
-    <col customWidth="1" min="2" max="2" width="14.14"/>
-    <col customWidth="1" min="3" max="3" width="12.86"/>
-    <col customWidth="1" min="4" max="4" width="66.43"/>
+    <col customWidth="1" min="2" max="2" width="7.43"/>
+    <col customWidth="1" min="3" max="3" width="6.86"/>
+    <col customWidth="1" min="4" max="4" width="32.86"/>
     <col customWidth="1" min="5" max="5" width="12.0"/>
-    <col customWidth="1" min="6" max="6" width="26.14"/>
-    <col customWidth="1" min="7" max="7" width="20.43"/>
-    <col customWidth="1" min="8" max="8" width="10.43"/>
+    <col customWidth="1" min="6" max="6" width="10.29"/>
+    <col customWidth="1" min="7" max="7" width="17.57"/>
+    <col customWidth="1" min="8" max="8" width="8.0"/>
     <col customWidth="1" min="9" max="26" width="8.86"/>
   </cols>
   <sheetData>
